--- a/stats_9_8.xlsx
+++ b/stats_9_8.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Serial time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 threads time </t>
-  </si>
-  <si>
     <t>Erdos-Renyi networks (p=0.3)</t>
   </si>
   <si>
@@ -44,7 +38,22 @@
     <t>*for larger networks, there wasn't enough memory space to run the Centiscape</t>
   </si>
   <si>
-    <t>updateBetweenness total time</t>
+    <t>Serial time (S)</t>
+  </si>
+  <si>
+    <t>2 threads time (M)</t>
+  </si>
+  <si>
+    <t>updateBetweenness total time (B)</t>
+  </si>
+  <si>
+    <t>serial add**</t>
+  </si>
+  <si>
+    <t>2 threads add**</t>
+  </si>
+  <si>
+    <t>**additional computation, apart from the centrality calculation. This includes Dijsktra algorithm, but does not represent total Dijkstra time, as it continues to run in the background while the centrality is calculated.</t>
   </si>
 </sst>
 </file>
@@ -363,48 +372,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -417,8 +433,16 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>B5-D5</f>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f>C5-D5</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -431,8 +455,16 @@
       <c r="D6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" ref="E6:E13" si="0">B6-D6</f>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F12" si="1">C6-D6</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -445,8 +477,16 @@
       <c r="D7">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100</v>
       </c>
@@ -459,8 +499,16 @@
       <c r="D8">
         <v>490</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>150</v>
       </c>
@@ -473,8 +521,16 @@
       <c r="D9">
         <v>2315</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>644</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>200</v>
       </c>
@@ -487,8 +543,16 @@
       <c r="D10">
         <v>6886</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1649</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>250</v>
       </c>
@@ -501,8 +565,16 @@
       <c r="D11">
         <v>17178</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3640</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>300</v>
       </c>
@@ -515,8 +587,16 @@
       <c r="D12">
         <v>34314</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7431</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>500</v>
       </c>
@@ -529,7 +609,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
